--- a/Finanzas/3_Mayo_Junio_2017.xlsx
+++ b/Finanzas/3_Mayo_Junio_2017.xlsx
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:BE964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
